--- a/log.xlsx
+++ b/log.xlsx
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2024-01-01 00:01:00</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,13 +464,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="n">
-        <v>2024</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2024-01-01 00:10:00</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -483,13 +483,13 @@
         <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>2024</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-10 16:09:00</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -502,13 +502,13 @@
         <v>114</v>
       </c>
       <c r="E4" t="n">
-        <v>2025</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-10 18:57:00</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -521,13 +521,13 @@
         <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>2025</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-11 07:23:00</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -540,13 +540,13 @@
         <v>107</v>
       </c>
       <c r="E6" t="n">
-        <v>2025</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-11 14:56:00</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -559,13 +559,13 @@
         <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>2025</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-11 19:21:00</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -578,13 +578,13 @@
         <v>97</v>
       </c>
       <c r="E8" t="n">
-        <v>2025</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:25</t>
+          <t>2025-07-11 19:22:00</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -597,13 +597,13 @@
         <v>108</v>
       </c>
       <c r="E9" t="n">
-        <v>2025</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-12 07:38:00</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -616,13 +616,13 @@
         <v>107</v>
       </c>
       <c r="E10" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-12 13:18:00</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -635,13 +635,13 @@
         <v>113</v>
       </c>
       <c r="E11" t="n">
-        <v>2025</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-12 13:18:00</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -654,13 +654,13 @@
         <v>120</v>
       </c>
       <c r="E12" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-12 22:18:00</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -673,13 +673,13 @@
         <v>110</v>
       </c>
       <c r="E13" t="n">
-        <v>2025</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-12 22:19:00</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -692,13 +692,13 @@
         <v>101</v>
       </c>
       <c r="E14" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-13 14:16:00</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -711,13 +711,13 @@
         <v>102</v>
       </c>
       <c r="E15" t="n">
-        <v>2025</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-13 14:17:00</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -730,13 +730,13 @@
         <v>99</v>
       </c>
       <c r="E16" t="n">
-        <v>2025</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-14 07:22:00</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -749,13 +749,13 @@
         <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>2025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-14 07:23:00</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -768,13 +768,13 @@
         <v>104</v>
       </c>
       <c r="E18" t="n">
-        <v>2025</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:26</t>
+          <t>2025-07-14 07:24:00</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -787,13 +787,13 @@
         <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>2025</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:27</t>
+          <t>2025-07-14 07:24:00</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -806,13 +806,13 @@
         <v>104</v>
       </c>
       <c r="E20" t="n">
-        <v>2025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-14 18:22:27</t>
+          <t>2025-07-14 12:49:00</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -825,13 +825,13 @@
         <v>109</v>
       </c>
       <c r="E21" t="n">
-        <v>2025</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2024-01-01 00:01:00</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -844,13 +844,13 @@
         <v>114</v>
       </c>
       <c r="E22" t="n">
-        <v>2024</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2024-01-01 00:10:00</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -863,13 +863,13 @@
         <v>104</v>
       </c>
       <c r="E23" t="n">
-        <v>2024</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2025-07-10 16:09:00</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -882,13 +882,13 @@
         <v>114</v>
       </c>
       <c r="E24" t="n">
-        <v>2025</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2025-07-10 18:57:00</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -901,13 +901,13 @@
         <v>120</v>
       </c>
       <c r="E25" t="n">
-        <v>2025</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2025-07-11 07:23:00</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -920,13 +920,13 @@
         <v>107</v>
       </c>
       <c r="E26" t="n">
-        <v>2025</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:35</t>
+          <t>2025-07-11 14:56:00</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -939,13 +939,13 @@
         <v>120</v>
       </c>
       <c r="E27" t="n">
-        <v>2025</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-11 19:21:00</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -958,13 +958,13 @@
         <v>97</v>
       </c>
       <c r="E28" t="n">
-        <v>2025</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-11 19:22:00</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -977,13 +977,13 @@
         <v>108</v>
       </c>
       <c r="E29" t="n">
-        <v>2025</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-12 07:38:00</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -996,13 +996,13 @@
         <v>107</v>
       </c>
       <c r="E30" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-12 13:18:00</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1015,13 +1015,13 @@
         <v>113</v>
       </c>
       <c r="E31" t="n">
-        <v>2025</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-12 13:18:00</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1034,13 +1034,13 @@
         <v>120</v>
       </c>
       <c r="E32" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-12 22:18:00</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1053,13 +1053,13 @@
         <v>110</v>
       </c>
       <c r="E33" t="n">
-        <v>2025</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-12 22:19:00</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1072,13 +1072,13 @@
         <v>101</v>
       </c>
       <c r="E34" t="n">
-        <v>2025</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-13 14:16:00</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1091,13 +1091,13 @@
         <v>102</v>
       </c>
       <c r="E35" t="n">
-        <v>2025</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-13 14:17:00</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1110,13 +1110,13 @@
         <v>99</v>
       </c>
       <c r="E36" t="n">
-        <v>2025</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:36</t>
+          <t>2025-07-14 07:22:00</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1129,13 +1129,13 @@
         <v>80</v>
       </c>
       <c r="E37" t="n">
-        <v>2025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:37</t>
+          <t>2025-07-14 07:23:00</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1148,13 +1148,13 @@
         <v>104</v>
       </c>
       <c r="E38" t="n">
-        <v>2025</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:37</t>
+          <t>2025-07-14 07:24:00</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1167,13 +1167,13 @@
         <v>70</v>
       </c>
       <c r="E39" t="n">
-        <v>2025</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:37</t>
+          <t>2025-07-14 07:24:00</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1186,13 +1186,13 @@
         <v>104</v>
       </c>
       <c r="E40" t="n">
-        <v>2025</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-14 18:25:37</t>
+          <t>2025-07-14 12:49:00</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1205,7 +1205,7 @@
         <v>109</v>
       </c>
       <c r="E41" t="n">
-        <v>2025</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
